--- a/www/ig/nos/ValueSet-JDV-J73-MetierPharmacien-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J73-MetierPharmacien-RASS.xlsx
@@ -32,13 +32,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.141</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.141</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J73-MetierPharmacien-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J73-MetierPharmacien-RASS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -74,7 +74,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -126,9 +132,6 @@
   </si>
   <si>
     <t>Pharmacien d'Outre-Mer</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -337,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -443,20 +446,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -478,66 +489,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -559,90 +570,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -664,50 +675,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J73-MetierPharmacien-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J73-MetierPharmacien-RASS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -74,64 +74,61 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Ensemble des sections et sous-sections du tableau du CNOP dans le RASS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Pharmacien titulaire d'officine</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Pharmacien d'entreprise - industrie</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Pharmacien d'entreprise - distribution</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Pharmacien adjoint, remplaçant ou gérant</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Pharmacien d'Outre-Mer</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Ensemble des sections et sous-sections du tableau du CNOP dans le RASS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Pharmacien titulaire d'officine</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Pharmacien d'entreprise - industrie</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Pharmacien d'entreprise - distribution</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Pharmacien adjoint, remplaçant ou gérant</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Pharmacien d'Outre-Mer</t>
   </si>
   <si>
     <t>System URI</t>
@@ -340,7 +337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -446,28 +443,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -489,66 +478,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -570,90 +559,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -675,50 +664,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J73-MetierPharmacien-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J73-MetierPharmacien-RASS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -77,61 +77,58 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Ensemble des sections et sous-sections du tableau du CNOP dans le RASS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Pharmacien titulaire d'officine</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Pharmacien d'entreprise - industrie</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Pharmacien d'entreprise - distribution</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Pharmacien adjoint, remplaçant ou gérant</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Pharmacien d'Outre-Mer</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Ensemble des sections et sous-sections du tableau du CNOP dans le RASS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Pharmacien titulaire d'officine</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Pharmacien d'entreprise - industrie</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Pharmacien d'entreprise - distribution</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Pharmacien adjoint, remplaçant ou gérant</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Pharmacien d'Outre-Mer</t>
   </si>
   <si>
     <t>System URI</t>
@@ -340,7 +337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -446,28 +443,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -489,66 +478,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -570,90 +559,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -675,50 +664,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J73-MetierPharmacien-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J73-MetierPharmacien-RASS.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
